--- a/evaluation/results/hybrid/pca/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="C2">
-        <v>0.4615384615384616</v>
+        <v>0.613314447592068</v>
       </c>
       <c r="D2">
-        <v>0.101123595505618</v>
+        <v>0.8108614232209738</v>
       </c>
       <c r="E2">
-        <v>0.1658986175115207</v>
+        <v>0.6983870967741935</v>
       </c>
       <c r="F2">
-        <v>0.1198402130492676</v>
+        <v>0.7617874736101337</v>
       </c>
       <c r="G2">
-        <v>0.1042548451770996</v>
+        <v>0.8009391007398976</v>
       </c>
       <c r="H2">
-        <v>0.4915730337078652</v>
+        <v>0.6820512280997069</v>
       </c>
       <c r="I2">
-        <v>54</v>
+        <v>433</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="K2">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="L2">
-        <v>480</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4952681388012618</v>
+        <v>0.7209944751381215</v>
       </c>
       <c r="C2">
-        <v>0.8820224719101124</v>
+        <v>0.4887640449438202</v>
       </c>
       <c r="D2">
-        <v>0.6343434343434343</v>
+        <v>0.5825892857142857</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4615384615384616</v>
+        <v>0.613314447592068</v>
       </c>
       <c r="C3">
-        <v>0.101123595505618</v>
+        <v>0.8108614232209738</v>
       </c>
       <c r="D3">
-        <v>0.1658986175115207</v>
+        <v>0.6983870967741935</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="C4">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="D4">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="E4">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4784033001698617</v>
+        <v>0.6671544613650948</v>
       </c>
       <c r="C5">
-        <v>0.4915730337078652</v>
+        <v>0.6498127340823969</v>
       </c>
       <c r="D5">
-        <v>0.4001210259274776</v>
+        <v>0.6404881912442396</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.4784033001698617</v>
+        <v>0.6671544613650948</v>
       </c>
       <c r="C6">
-        <v>0.4915730337078651</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="D6">
-        <v>0.4001210259274776</v>
+        <v>0.6404881912442396</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>480</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
